--- a/社内EDP更新.xlsx
+++ b/社内EDP更新.xlsx
@@ -5,30 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-ogu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_nan\01_社内情報化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D534BDB9-EFC0-480E-89AE-CC668AB417B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30809646-95EE-4ED2-982E-2FEE71EEFBC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="810" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="現状ワークフロー" sheetId="1" r:id="rId1"/>
-    <sheet name="現状入出力と問題点" sheetId="2" r:id="rId2"/>
-    <sheet name="UI" sheetId="3" r:id="rId3"/>
-    <sheet name="権限" sheetId="6" r:id="rId4"/>
-    <sheet name="画面一覧" sheetId="4" r:id="rId5"/>
-    <sheet name="postgresqlインストール" sheetId="5" r:id="rId6"/>
-    <sheet name="ER図" sheetId="10" r:id="rId7"/>
-    <sheet name="DBマスタ一覧" sheetId="11" r:id="rId8"/>
-    <sheet name="ログイン画面" sheetId="9" r:id="rId9"/>
-    <sheet name="タイムカード画面" sheetId="8" r:id="rId10"/>
-    <sheet name="勤務表画面" sheetId="7" r:id="rId11"/>
+    <sheet name="BPMS" sheetId="13" r:id="rId1"/>
+    <sheet name="現状ワークフロー" sheetId="1" r:id="rId2"/>
+    <sheet name="現状入出力と問題点" sheetId="2" r:id="rId3"/>
+    <sheet name="UI" sheetId="3" r:id="rId4"/>
+    <sheet name="権限" sheetId="6" r:id="rId5"/>
+    <sheet name="画面一覧" sheetId="4" r:id="rId6"/>
+    <sheet name="postgresqlインストール" sheetId="5" r:id="rId7"/>
+    <sheet name="命名規約" sheetId="10" r:id="rId8"/>
+    <sheet name="DBマスタ一覧" sheetId="11" r:id="rId9"/>
+    <sheet name="DBトラン一覧" sheetId="12" r:id="rId10"/>
+    <sheet name="ログイン画面" sheetId="9" r:id="rId11"/>
+    <sheet name="タイムカード画面" sheetId="8" r:id="rId12"/>
+    <sheet name="勤務表画面" sheetId="7" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">UI!$A$1:$S$76</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">現状ワークフロー!$A$1:$AG$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">現状入出力と問題点!$A$1:$R$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">UI!$A$1:$S$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">現状ワークフロー!$A$1:$AG$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">現状入出力と問題点!$A$1:$R$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="519">
   <si>
     <t>◆</t>
     <phoneticPr fontId="1"/>
@@ -3147,12 +3149,981 @@
     <t>パスワードマスタ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>トランザクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打刻テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ダコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員コード</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤年月日</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤打刻時刻</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退勤打刻時刻</t>
+    <rPh sb="0" eb="2">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤簿テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤年月</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤日</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤区分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトCD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業時間</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請状態テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属コード</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請区分</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:有休, 1:残業, 2:休日出勤, 3:振替, 4:代休, 5:特別休暇</t>
+    <rPh sb="2" eb="4">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダイキュウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キュウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請状態</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象年月日(FROM)</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象年月日(TO)</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時刻</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時刻</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振替・代休年月日</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダイキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特休区分</t>
+    <rPh sb="0" eb="2">
+      <t>トッキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認者社員コード</t>
+    <rPh sb="0" eb="3">
+      <t>ショウニンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次承認者社員コード</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ショウニンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５分で絶対わかるBPMS</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/im/articles/0803/21/news148.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム化の新しい対象</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT（情報技術）は、企業活動はいうに及ばず、個人の生活においてもなくてはならないものになっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その進化と普及は、会社の中での仕事の仕方、さらには企業行動そのものにも重大な変化をもたらしています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1990年代、インターネットとWebの登場はITの世界を大きく変えました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私たちは安価なPC（その後、携帯電話端末などが加わります）を使って、業務システムにアクセスしたり、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人との情報交換を行うことができるようになりました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このような情報とコミュニケーションにかかわる技術を従来のITと区別して、「ICT」と呼ぶ人たちもいます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この変化を受けて、従来はIT化の対象ではなかった企業の業務が新たに対象領域となりました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>“仕事の流れ”を受け持って、企業内外の「人と人」（組織と組織）、「人と業務システム」、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あるいは「業務システムと業務システム」を効率的につなぐための“ビジネスプロセス”に関する領域です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このビジネスプロセスを見える化し、改善していくための経営手法をBPM（ビジネスプロセスマネジメント）といいます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そして新たにシステム化の対象となった領域のシステムを迅速に構築し、同時にBPMを定着させるための</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスプラットフォームとなるITシステムが、BPMS（ビジネスプロセスマネジメント・システム、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あるいはビジネスプロセスマネジメント・スイート）です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSがどんなものか、どんな効果があるのかを、もう少し詳しく見ていきましょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1分 － 会社における「仕事の構造」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社で行う仕事は、複数の工程（プロセス）をみんなで分け合って行う分業です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分業を実現するには、工程同士が連絡を取り合って、作業の受け渡しを実現する必要があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「営業部門が受注したので、製品を出荷する」「生産オーダーが決定したので、部材を発注する」といった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>“流れ”を実現するため、会社ではいろいろな方法で仕事の始まりや終わりを伝え合っています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部には「ワークフロー・システム」や「ERP」などが使われているかもしれませんが、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多くの場合は口頭や電話、電子メールでの指示だったり、出庫指示書や支払依頼書といった伝票を使ったりしているでしょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これから説明するBPMSは、このような“仕事の流れ”の「構造化」「標準化」「可視化」「自動化」を支援する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスプラットフォームを構築するソフトウェアです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個々の工程（業務機能といってもよいですし、ビジネスコンポーネント、あるいはサービスといってもいいでしょう）を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み合わせて、ビジネスプロセスを「設計」「実行」「管理」することで、組織における業務の遂行と改善をサポートします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いま「仕事」「工程」「作業」という言葉を使いましたが、工程1つ1つの単位（粒度）は相対的なものなので、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どれが仕事で、どれが作業なのかを統一的に決める基準はありません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、個人的な作業から会社全体の仕事まで、階層的な構造があることは分かると思います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図1　「仕事」は階層的分業構造になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSで個々の工程＝要素となるのは、「個人（担当者）」「組織（部門）」「業務アプリケーション」などです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これら要素の組み合わせを変える場合、従来は“組織変更”とか、“業務改革”、あるいは“システム化”といった掛け声の下に行われるのが一般的でした。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これを日ごろから常時モニタリングし、（大規模改革であれ、小規模改善であれ）最適化できる基盤を提供するのがBPMSなのです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2分 － プロセス改善基盤としてのBPMS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSの役割は、ビジネスプロセスを「設計」「展開」「実行」「管理」することです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象となるプロセスには、「人と人」「人とシステム」、あるいは「システムとシステム」があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスプロセスの「設計」とは、モデラーと呼ばれるグラフィカルなツールを使って仕事の流れを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フローチャート（モデル図）に表現することです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各業務の始点と終点を明確にして手順や前後のつながり、手段、担当者を決めます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事の流れをシーケンシャル（直列）にするか、コンカレント（並列）にするか、あるいは流れの分岐や合流に無理や無駄がないか、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセルがあったときにどのプロセスに戻すのか、といったことも検討します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この「設計」は業務を良く知っている、ビジネス実務者の視点で行われます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に「設計」で作成されたモデルを使って、IT技術者が変数を定義したり、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示画面の作成や他プログラムとの連携処理を行うことで、実行プログラムを生成します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これを「展開」と呼びます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その次が「実行」です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSの最も中核的な存在意義は、この「実行」にあるかもしれません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事の流れの定義は紙とペンで行うこともできます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本版SOX法の業務フロー作成をグラフィックソフトで行った方も多いでしょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSでは、仕事の決まり事（モデル）を作るだけではなく、実業務を駆動させるのです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば、「部材調達には上司と調達部の承認を得ること」とビジネスモデルが定義されたならば、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調達を行う社員は自分のポータル画面に諸条件を入力して、次に「調達承認依頼」をすることになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すると上司と調達部担当者のポータルに承認依頼が到着します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認が得られれば、調達システムから自動的に発注が行われるかもしれません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（ただし、そのようにシステム連携の設定がされていればですが）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスプロセスの「管理」は、各工程がきちんと行われているかどうかを監視したり、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実作業における実態を数値データとして収集・分析して業務改善につなげます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析の結果、判明した改善策をビジネスプロセスの設計（モデル）に反映させるわけです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまりビジネスプロセス改善のためのPDCAサイクルを回す基盤となるのが、BPMSです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスプロセスを可視化・再設計を行い、実際に実行した結果の業績を計測して、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の改善に活用する――。現場の実業務をよく知るユーザー部門の責任者が、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうした改善業務を行っていくベースとなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図2　BPM／BPMSとPDCA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3分 － 企業システムにおけるBPMSの位置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のビジネスは、ITシステムに大きく依存しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場や顧客、競合他社の動きが激しいという状況から、業務システムについても短期開発、頻繁な変更を余儀なくされています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「システム上の制約があるので、××サービスの提供は半年後」では、厳しい競争を勝ち抜けません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSは、業務システムの早期開発を実現するという側面もあります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスプロセスをモデルとして作成すると、それに基づいて自動的に実行可能なシステムが得られるのです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その実現法としては、前ページのように実行コードを自動生成するやり方もありますが、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほかにSOAの仕組みと一体となってサービス連携を実現することで、「コンポジットアプリケーション」を構成する方法があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この場合、EAIやESBなどのシステム連携基盤を介して、ERPやCRMなどの既存の業務アプリケーションと連携することになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンドユーザーからは、個別の業務アプリケーションの特性は隠蔽（ぺい）され、単一のシステムが動いているように見えるでしょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格や在庫の状況などの条件に応じてシステムの接続先、つまり取引先を変更するといったことも、BPMSで自動的に行うといったことも期待できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従来の業務アプリケーションは、定型的な処理を効率的に実行するためのものでした。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対してBPMSは頻繁な変更があり、また承認や保留といった判断・意思決定が必要な人間的領域を支援・実行するシステムです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この2つは異なる特性を持つので、ITシステムにおけるレイヤーを分離し、開発手法も変える必要があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまり、業務オペレーション上の人間系アプリケーション・システムの早期開発と即時実行を担うのが、BPMSだといえます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図3　企業システムにおけるBPMSのレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いずれにしても、利用者はビジネスプロセスをGUIのモデラーで定義するだけで、ほぼそのまま実行システムが得られます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセスに変更があればモデラー上でモデルに修正・編集を行うだけで、即座に実行システムに反映されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT技術者と打ち合わせをして、変更の内容を理解してもらって、それを反映してもらうという手間がなくなるのです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（変更の程度が大きければ、IT技術者の手が必要かもしれません）。これがBPMSを利用する大きなメリットです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4分 － BPMスイートの機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSのSがスイートとなっている製品、つまり「ビジネスプロセスマネジメント・スイート」の場合、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幾つかの機能が集まって、総合的にシステムの早期実現と業務の継続的改善を支援します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■BPM実行エンジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSの中核を成す基盤システムです。モデラーで設定されたビジネスモデルに基づいて、複数のビジネスプロセスを正確かつ柔軟に制御します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javaなどの実行コードを自動生成するコードジェネレータとして機能するタイプや、外部のアプリケーション（サービス）を順次呼び出して連携させるBPELサーバなどがあります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可用性、拡張性、オープン性、回復制御、履歴管理などの基本機能を提供します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■プロセスモデラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務プロセスの流れを描くツールです。この作業をビジネスモデリング（ビジネスプロセス・モデリング）などといいますが、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSにおいては“仕事の流れ”をフローチャートに描くことだと考えればいいでしょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデリングにはいろいろな表記法がありますが、BPMSではBPMNが業界標準です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図4　「Savvion Process Modeler」で描いたBPMN表記のプロセス図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■シミュレーション機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデラーで描いたモデルに数値を設定し、シミュレーションを行う機能です。改善案の事前評価を行えます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■組織モデラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業の人事組織モデル（構造、要素間の関係や設定など）を描くツールです。ビジネスプロセスのモデルとリンクして利用されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ワークフロー機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル化されたビジネスプロセスをベースに、実際に稼働するワークフローの機能を現場に提供します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ビジネスルール管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BRMSの機能を搭載、あるいは連携することで、個別のプロセスにおける判断を自動化し、プロセス全体の自動実行を支援します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ソフトウェア開発</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデラーで作成したモデルを基に、実行プログラムを開発するための開発環境です。Eclipsや.NETが利用されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■システム連携機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ESBやEAIの機能を搭載、あるいは連携することで、既存の業務システムとの連携を行います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■プロセスモニタリング機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BAM機能により、業務の実行状況を常に監視・リポートします。問題が発生した際の即時対応、事後の業務改善に役立ちます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5分 － BPMSが変えるITシステムの使い方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後にBPMSが実現するシステムの特徴と効果をまとめてみましょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■すぐにシステム変更ができます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務システム（アプリケーションソフトウェア）はシステムソフトウェア（OSなど）に比べれば、単純なプログラムです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、IT技術者がユーザーから要求を聞いて仕様を定義して、さまざまな制約を考慮しながら設計し、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それをプログラミング言語でコーディングするという方法では時間ばかりかかってしまい、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーは「こんな単純なことがどうしてすぐにできないのか？」と不満を持つことになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSはそれを大幅に変革します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ユーザーが主役です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネス上の要件と要求を一番よく知っているのは、ビジネスパーソン＝ユーザーです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSはユーザー自身が「システムを作る」基盤を提供します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル設計者となるユーザーはビジネスを分析して構造化する能力が必要ですが、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT技術者がさまざまな領域におけるビジネス知識を身に付けるよりも現実的です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがビジネスをモデル化することで、システム開発に俊敏性が生まれます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これからの業務システム開発においては、ビジネスユーザーが主役になるのです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■システム連携を前提にした業務設計ができます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほんの数年前まではシステム連携は非常にコストの掛かるものでした。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最近では連携技術の整備・標準化が進み、連携が容易になってきました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これら連携技術を取り入れて、人と人、人とシステム、システムとシステムのつながり方を“見える化”するBPMSは、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変化対応力に優れたITシステムを実現するでしょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■変更は善</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「安定稼働しているITシステムは、できるだけいじらない」というのが、大方のIT技術者の考え方でしょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このため、現場ユーザー部門の改善要求を情報システム部が突っぱねて、いらぬコンフリクトが起こるケースも見られました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSは、ビジネス変化対応力の制約事項の1つになっていた従来型システム開発からアプリケーション利用者を解放します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPMSは、経営手法としてのBPM（継続的なプロセス改善）を推し進めるために重要な基盤システムですが、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務アプリケーションの在り方を変えるという観点からも強力なツールです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンプレミス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命名規約</t>
+    <rPh sb="0" eb="2">
+      <t>メイメイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルカラム名</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディング規約</t>
+    <rPh sb="6" eb="8">
+      <t>キヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_英単語小文字複数形</t>
+    <rPh sb="2" eb="5">
+      <t>エイタンゴ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>フクスウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_英単語小文字複数形</t>
+    <rPh sb="2" eb="5">
+      <t>エイタンゴ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>フクスウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w_英単語小文字複数形</t>
+    <rPh sb="2" eb="5">
+      <t>エイタンゴ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>フクスウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英単語小文字、スネークケース</t>
+    <rPh sb="0" eb="3">
+      <t>エイタンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3208,6 +4179,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3253,7 +4232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3628,11 +4607,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3733,6 +4733,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3773,7 +4776,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -3800,6 +4804,256 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA58AF1-25C5-4517-97A4-3F27D4CBB347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1133475" y="11287125"/>
+          <a:ext cx="4667250" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA8A423-AF4D-4542-97BB-5A47697FAC37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="733425" y="24707850"/>
+          <a:ext cx="3619500" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF55947-8DA9-4372-971C-41D221367C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1076325" y="32746950"/>
+          <a:ext cx="4286250" cy="4095750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD315665-C1D0-49FA-BDF8-2AE89D74755C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1152525" y="42872025"/>
+          <a:ext cx="4286250" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8480,7 +9734,172 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>216144</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 代替処理 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A29C4D-A80E-416E-9726-18FFBAFF0582}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264269" y="1450731"/>
+          <a:ext cx="904875" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>出勤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>70338</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286482</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>150935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 代替処理 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133D06BF-FD0E-48CD-86ED-C543E109FC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5712069" y="1469781"/>
+          <a:ext cx="904875" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>退勤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10101,7 +11520,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10156,7 +11575,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10537,40 +11956,1219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A941157B-A143-4B83-8211-640609568077}">
+  <dimension ref="A2:F252"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="O252" sqref="O252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="A3" s="64" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="F47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="C103" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="B119" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="B120" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="B121" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="B122" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="B123" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="B125" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="B126" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="B128" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="E137" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="C161" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="C166" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="C167" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="C169" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="C170" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="C171" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="C172" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="C174" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="C175" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="C176" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4">
+      <c r="C177" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4">
+      <c r="D179" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="C209" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="C211" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="C212" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="C214" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="C215" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="C219" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="C221" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="C222" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="C223" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="C224" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4">
+      <c r="C242" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4">
+      <c r="C243" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="244" spans="3:4">
+      <c r="C244" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="245" spans="3:4">
+      <c r="C245" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="247" spans="3:4">
+      <c r="C247" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="248" spans="3:4">
+      <c r="C248" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="252" spans="3:4">
+      <c r="D252" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{9F22242E-DB5E-4887-B1D0-A864CC3A5807}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3F1B33-62E6-48E9-8702-5117A9B66E61}">
+  <dimension ref="A3:L48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="C6" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" t="s">
+        <v>239</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" t="s">
+        <v>345</v>
+      </c>
+      <c r="L15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" t="s">
+        <v>239</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="H42" s="23"/>
+      <c r="I42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="C44" s="21"/>
+      <c r="D44" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="H45" s="23"/>
+      <c r="I45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11">
+      <c r="C48" s="24"/>
+      <c r="D48" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="63"/>
+      <c r="I48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B4E0FF-BDC6-459D-99C5-D0F99EA39FBB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E951B6-B23B-4069-8473-EC8C77FFD2A1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10586,7 +13184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2D0F4B-F7C7-4AA4-8BC9-CA5086760FE3}">
   <dimension ref="C2:M35"/>
   <sheetViews>
@@ -11459,6 +14057,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="67" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DB3224-9332-40CC-B45D-5C487D7E6113}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11501,70 +14133,70 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="70" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="71" t="s">
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="64" t="s">
+      <c r="L2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="63" t="s">
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="74" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74" t="s">
+      <c r="H3" s="77"/>
+      <c r="I3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="65" t="s">
+      <c r="J3" s="77"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="66"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="72" t="s">
+      <c r="O3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="62" t="s">
+      <c r="P3" s="66"/>
+      <c r="Q3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="62"/>
+      <c r="R3" s="65"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1">
       <c r="B4" s="11" t="s">
@@ -11652,7 +14284,7 @@
       <c r="M5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="70" t="s">
         <v>34</v>
       </c>
       <c r="O5" s="10" t="s">
@@ -11705,7 +14337,7 @@
       <c r="M6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="68"/>
+      <c r="N6" s="71"/>
       <c r="O6" s="10" t="s">
         <v>23</v>
       </c>
@@ -11720,7 +14352,7 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -11773,7 +14405,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="69"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
@@ -12325,11 +14957,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612AA051-74F2-4A3D-BC10-E628E02C4766}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A61" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
@@ -12666,12 +15298,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001131E4-38B2-4961-8241-50FA11C1CFA8}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12824,10 +15456,11 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F4F75E-E1B8-4DE6-B679-57BB5EE50491}">
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -13559,7 +16192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EC434C-E594-4454-BE21-83173216F0E5}">
   <dimension ref="B4:C630"/>
   <sheetViews>
@@ -13686,26 +16319,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7439BEF3-F70A-422D-906A-8B326F8D070D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4255A7F8-1D36-4FF8-AA01-E018C6934B69}">
   <dimension ref="B10:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -14930,20 +17640,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B4E0FF-BDC6-459D-99C5-D0F99EA39FBB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/社内EDP更新.xlsx
+++ b/社内EDP更新.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_nan\01_社内情報化\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-ogu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30809646-95EE-4ED2-982E-2FEE71EEFBC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2918B792-0EEF-4AEA-8417-67E6525457DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="810" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="810" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPMS" sheetId="13" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="ログイン画面" sheetId="9" r:id="rId11"/>
     <sheet name="タイムカード画面" sheetId="8" r:id="rId12"/>
     <sheet name="勤務表画面" sheetId="7" r:id="rId13"/>
+    <sheet name="申請画面" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">UI!$A$1:$S$76</definedName>
@@ -4736,11 +4737,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4756,24 +4775,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11630,6 +11631,116 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543393</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182B66D4-AFCC-4F88-9729-8B0302D3607E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12172950" y="857250"/>
+          <a:ext cx="3353268" cy="5849166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19522</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>115116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81404AD5-D3B7-4D2F-AAC4-EAC43F0B42B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="457200"/>
+          <a:ext cx="3381847" cy="5849166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{190F5634-AD58-4A70-B8F3-6B71D3CFD065}" name="テーブル1" displayName="テーブル1" ref="C4:M35" totalsRowShown="0">
   <autoFilter ref="C4:M35" xr:uid="{76E40E08-C2CD-40E7-BB3C-F460EAA15254}"/>
@@ -12669,7 +12780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3F1B33-62E6-48E9-8702-5117A9B66E61}">
   <dimension ref="A3:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
@@ -13188,8 +13299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2D0F4B-F7C7-4AA4-8BC9-CA5086760FE3}">
   <dimension ref="C2:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75"/>
@@ -14050,9 +14161,27 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4BB317-650F-48FD-A690-BF4ECE5181C1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14133,70 +14262,70 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="73" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="74" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="66" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="77" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="68" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="75"/>
       <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="65" t="s">
+      <c r="P3" s="69"/>
+      <c r="Q3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="65"/>
+      <c r="R3" s="72"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1">
       <c r="B4" s="11" t="s">
@@ -14284,7 +14413,7 @@
       <c r="M5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="76" t="s">
         <v>34</v>
       </c>
       <c r="O5" s="10" t="s">
@@ -14337,7 +14466,7 @@
       <c r="M6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="71"/>
+      <c r="N6" s="77"/>
       <c r="O6" s="10" t="s">
         <v>23</v>
       </c>
@@ -14352,7 +14481,7 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -14405,7 +14534,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="72"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
@@ -14935,6 +15064,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="K2:K3"/>
@@ -14945,11 +15079,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16415,7 +16544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4255A7F8-1D36-4FF8-AA01-E018C6934B69}">
   <dimension ref="B10:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>

--- a/社内EDP更新.xlsx
+++ b/社内EDP更新.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-ogu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-ogu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2918B792-0EEF-4AEA-8417-67E6525457DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF80E7-9485-4961-AB2D-13C9F6930B16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="810" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="810" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPMS" sheetId="13" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="タイムカード画面" sheetId="8" r:id="rId12"/>
     <sheet name="勤務表画面" sheetId="7" r:id="rId13"/>
     <sheet name="申請画面" sheetId="14" r:id="rId14"/>
+    <sheet name="管理画面" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">UI!$A$1:$S$76</definedName>
@@ -4737,29 +4738,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4775,6 +4758,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11741,6 +11742,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5132BA1-77E1-4F4A-95CF-1D5149496BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="1009650"/>
+          <a:ext cx="10058400" cy="5187350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{190F5634-AD58-4A70-B8F3-6B71D3CFD065}" name="テーブル1" displayName="テーブル1" ref="C4:M35" totalsRowShown="0">
   <autoFilter ref="C4:M35" xr:uid="{76E40E08-C2CD-40E7-BB3C-F460EAA15254}"/>
@@ -13267,8 +13323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B4E0FF-BDC6-459D-99C5-D0F99EA39FBB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -14172,8 +14228,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4BB317-650F-48FD-A690-BF4ECE5181C1}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B208F16-A9C7-4328-8EB7-0AE43FDA4245}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -14262,70 +14335,70 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="66" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="67" t="s">
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="69" t="s">
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="71" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71" t="s">
+      <c r="H3" s="77"/>
+      <c r="I3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="74" t="s">
+      <c r="J3" s="77"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="75"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="72" t="s">
+      <c r="P3" s="66"/>
+      <c r="Q3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="72"/>
+      <c r="R3" s="65"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1">
       <c r="B4" s="11" t="s">
@@ -14413,7 +14486,7 @@
       <c r="M5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="76" t="s">
+      <c r="N5" s="70" t="s">
         <v>34</v>
       </c>
       <c r="O5" s="10" t="s">
@@ -14466,7 +14539,7 @@
       <c r="M6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="77"/>
+      <c r="N6" s="71"/>
       <c r="O6" s="10" t="s">
         <v>23</v>
       </c>
@@ -14481,7 +14554,7 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -14534,7 +14607,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="65"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
@@ -15064,11 +15137,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N5:N6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="K2:K3"/>
@@ -15079,6 +15147,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
